--- a/trained_models_old_clean/MLP/vertebral_3C/results_table.xlsx
+++ b/trained_models_old_clean/MLP/vertebral_3C/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
+          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.519094064086862, 'beta_2': 0.6599215566819873, 'epsilon': 0.5656267886268035, 'learning_rate': 'constant', 'momentum': 0.2626108832218125, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1670891885098651}</t>
+          <t>{'beta_1': 0.5744866490705209, 'beta_2': 0.25651104863639224, 'epsilon': 0.23655324658624946, 'learning_rate': 'constant', 'momentum': 0.3296511575814126, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.10816552447633765}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.776595744680851</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.05100201162723169, 'beta_2': 0.33093761141243355, 'epsilon': 0.32000596022432076, 'learning_rate': 'adaptive', 'momentum': 0.33828139189745543, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8664586694893915}</t>
+          <t>{'beta_1': 0.5255702520521403, 'beta_2': 0.2130687220349326, 'epsilon': 0.49176890515605987, 'learning_rate': 'invscaling', 'momentum': 0.649064242840353, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5765630410282961}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
+          <t>{'beta_1': 0.25121232420123485, 'beta_2': 0.9313630133329627, 'epsilon': 0.9920083131636438, 'learning_rate': 'invscaling', 'momentum': 0.5129053230612274, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.34769798866549106}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.052354629733086175, 'beta_2': 0.9092212557463333, 'epsilon': 0.5338975961371942, 'learning_rate': 'constant', 'momentum': 0.6800837840490205, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25748830652559607}</t>
+          <t>{'beta_1': 0.7746514249422546, 'beta_2': 0.7964955714083342, 'epsilon': 0.7807090265923036, 'learning_rate': 'invscaling', 'momentum': 0.72685102950692, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.03669141786941299}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.776595744680851</v>
+        <v>0.5425531914893617</v>
       </c>
     </row>
     <row r="7">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
+          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.776595744680851</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9625065247504405, 'beta_2': 0.3046592187747645, 'epsilon': 0.9404978523922592, 'learning_rate': 'adaptive', 'momentum': 0.7513464276552426, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19744130972614415}</t>
+          <t>{'beta_1': 0.5325626364884489, 'beta_2': 0.2964159009195633, 'epsilon': 0.4814323469938282, 'learning_rate': 'constant', 'momentum': 0.3759624313127088, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.14596480901134845}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.8617021276595744</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6063821830010174, 'beta_2': 0.14425342131756033, 'epsilon': 0.6955945558930755, 'learning_rate': 'adaptive', 'momentum': 0.11207188087491515, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2847797050309543}</t>
+          <t>{'beta_1': 0.18086062984940418, 'beta_2': 0.7629831203210261, 'epsilon': 0.06128419048861812, 'learning_rate': 'constant', 'momentum': 0.8258616403155806, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23856602572266783}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.776595744680851</v>
+        <v>0.8297872340425532</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.716468055057808, 'beta_2': 0.35378522575703863, 'epsilon': 0.5454678757630207, 'learning_rate': 'constant', 'momentum': 0.12709534772259246, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6713966767634144}</t>
+          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8191489361702128</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.013934447537481931, 'beta_2': 0.532932216069178, 'epsilon': 0.3042774486452318, 'learning_rate': 'constant', 'momentum': 0.07952208258675575, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6720478073539145}</t>
+          <t>{'beta_1': 0.06389131085486015, 'beta_2': 0.4851419683386883, 'epsilon': 0.9765176446047024, 'learning_rate': 'constant', 'momentum': 0.33815895183684563, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2317016264712045}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8404255319148937</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.432854773920062, 'beta_2': 0.7553505871711759, 'epsilon': 0.3957021771479389, 'learning_rate': 'adaptive', 'momentum': 0.5722519057908734, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6800555694634123}</t>
+          <t>{'beta_1': 0.5325626364884489, 'beta_2': 0.2964159009195633, 'epsilon': 0.4814323469938282, 'learning_rate': 'constant', 'momentum': 0.3759624313127088, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.14596480901134845}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8191489361702128</v>
+        <v>0.7446808510638298</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.004044058262057914, 'beta_2': 0.2692099545241596, 'epsilon': 0.4100816459563625, 'learning_rate': 'constant', 'momentum': 0.8221177331942455, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.511318982546456}</t>
+          <t>{'beta_1': 0.46441352147704323, 'beta_2': 0.9614455825915734, 'epsilon': 0.8131609475908695, 'learning_rate': 'constant', 'momentum': 0.5611209274297748, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2780502383012221}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.8191489361702128</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.16388054667706958, 'beta_2': 0.46110686039660415, 'epsilon': 0.05164037856454271, 'learning_rate': 'adaptive', 'momentum': 0.05720755875071437, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6741662803737272}</t>
+          <t>{'beta_1': 0.12047989084193983, 'beta_2': 0.7807391346152746, 'epsilon': 0.3514346937944752, 'learning_rate': 'invscaling', 'momentum': 0.5760767658404541, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9702129436362472}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6508527181139733, 'beta_2': 0.38159210878680017, 'epsilon': 0.33820372777845686, 'learning_rate': 'invscaling', 'momentum': 0.6141750023638414, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1992281464241792}</t>
+          <t>{'beta_1': 0.7735785965307255, 'beta_2': 0.559813330110261, 'epsilon': 0.08241100957801228, 'learning_rate': 'adaptive', 'momentum': 0.8850222549385791, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.009687626994602683}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.46441352147704323, 'beta_2': 0.9614455825915734, 'epsilon': 0.8131609475908695, 'learning_rate': 'constant', 'momentum': 0.5611209274297748, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2780502383012221}</t>
+          <t>{'beta_1': 0.12914092473644753, 'beta_2': 0.6687387117714806, 'epsilon': 0.8959135612925455, 'learning_rate': 'invscaling', 'momentum': 0.5006920990205621, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2861476039966042}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.776595744680851</v>
+        <v>0.8191489361702128</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
+          <t>{'beta_1': 0.33989100308262865, 'beta_2': 0.2381323969631391, 'epsilon': 0.5098902102881291, 'learning_rate': 'invscaling', 'momentum': 0.2536073790650063, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9126706209463072}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8617021276595744</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7454851955006616, 'beta_2': 0.1863022098470471, 'epsilon': 0.9550867672423169, 'learning_rate': 'adaptive', 'momentum': 0.4288980925565181, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5661600170334582}</t>
+          <t>{'beta_1': 0.34451173003612534, 'beta_2': 0.10100638307292784, 'epsilon': 0.31806055772951036, 'learning_rate': 'invscaling', 'momentum': 0.8112588995548236, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9016504359672537}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.8191489361702128</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3558969243603615, 'beta_2': 0.7563726480312566, 'epsilon': 0.9853427339385873, 'learning_rate': 'invscaling', 'momentum': 0.9534053465033483, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.17012610063108624}</t>
+          <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.1076710352740956, 'beta_2': 0.23068500855019158, 'epsilon': 0.9444632775429541, 'learning_rate': 'invscaling', 'momentum': 0.3800345760236875, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6946109034163818}</t>
+          <t>{'beta_1': 0.6975502293404723, 'beta_2': 0.33516267150622375, 'epsilon': 0.14753789262850064, 'learning_rate': 'invscaling', 'momentum': 0.24190170420148482, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5219962736299825}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.752507394540385, 'beta_2': 0.22558304175154437, 'epsilon': 0.7506296212829601, 'learning_rate': 'invscaling', 'momentum': 0.6628564785571198, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7780388469246989}</t>
+          <t>{'beta_1': 0.013934447537481931, 'beta_2': 0.532932216069178, 'epsilon': 0.3042774486452318, 'learning_rate': 'constant', 'momentum': 0.07952208258675575, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6720478073539145}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.776595744680851</v>
       </c>
     </row>
   </sheetData>
